--- a/2023/Palestrantes.xlsx
+++ b/2023/Palestrantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/Simposio/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3620F79-7354-004D-AAAA-54E230B914D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B48B09-3E20-E24B-AF36-20B3C42E03CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="6" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Imagem</t>
   </si>
   <si>
-    <t>Ivaldo Brandão.png</t>
-  </si>
-  <si>
     <t>Palestrante</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t>Profa. Dra. Flávia Dutra</t>
   </si>
   <si>
-    <t>Flávia Dutra.png</t>
-  </si>
-  <si>
     <t>Universidade do Estado do Rio de Janeiro (UERJ)</t>
   </si>
   <si>
@@ -273,6 +267,12 @@
   </si>
   <si>
     <t>Doutora em Educação, Gestão e Difusão em Biociências pelo Instituto de Bioquímica Médica Leopoldo De Meis (UFRJ)</t>
+  </si>
+  <si>
+    <t>Flavia Dutra.png</t>
+  </si>
+  <si>
+    <t>Ivaldo Brandao.png</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8470464-C0F3-0544-B5A2-36133E800C8D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -656,24 +656,24 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -766,77 +766,77 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -864,52 +864,52 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -937,57 +937,57 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1015,52 +1015,52 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1088,42 +1088,42 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9716452-821A-6A46-A491-A43F271E6EE1}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1151,47 +1151,47 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/2023/Palestrantes.xlsx
+++ b/2023/Palestrantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/Simposio/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B48B09-3E20-E24B-AF36-20B3C42E03CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B7836B-B33E-C84A-8F3F-8E5D3417E890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="5" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>Igor Correia.png</t>
   </si>
   <si>
-    <t>Prof. Ms. Igor Correia</t>
-  </si>
-  <si>
     <t>Programa de Pós-graduação em Ciências da Reabilitação (PPGCR/ UNISUAM) e Corpo de Bombeiros Militar do Estado do Rio de Janeiro (CBMERJ)</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Ivaldo Brandao.png</t>
+  </si>
+  <si>
+    <t>Prof. MSc. Igor Correia</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8470464-C0F3-0544-B5A2-36133E800C8D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -667,7 +667,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -1072,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F963BC-BD36-0844-8324-1853DD050381}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1102,28 +1102,28 @@
         <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1162,36 +1162,36 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
